--- a/trunk/kurser/sad/Event table.xlsx
+++ b/trunk/kurser/sad/Event table.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
   <si>
     <t>Events\classes</t>
   </si>
@@ -64,6 +64,18 @@
   </si>
   <si>
     <t>Staff replied</t>
+  </si>
+  <si>
+    <t>Role assigned</t>
+  </si>
+  <si>
+    <t>Role unassigned</t>
+  </si>
+  <si>
+    <t>Person</t>
+  </si>
+  <si>
+    <t>Person created</t>
   </si>
 </sst>
 </file>
@@ -427,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:G12"/>
+  <dimension ref="B3:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -439,7 +451,7 @@
     <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:8">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -458,8 +470,11 @@
       <c r="G3" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="2:7">
+      <c r="H3" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -470,7 +485,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:8">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -484,7 +499,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:8">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -498,7 +513,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:8">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -509,7 +524,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:8">
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
@@ -520,7 +535,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:8">
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
@@ -531,7 +546,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:8">
       <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
@@ -539,7 +554,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:8">
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
@@ -547,11 +562,35 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="2:8">
       <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" t="s">
         <v>13</v>
       </c>
     </row>

--- a/trunk/kurser/sad/Event table.xlsx
+++ b/trunk/kurser/sad/Event table.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="22">
   <si>
     <t>Events\classes</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t>Person created</t>
+  </si>
+  <si>
+    <t>Staff emplyed</t>
+  </si>
+  <si>
+    <t>Staff fired</t>
   </si>
 </sst>
 </file>
@@ -439,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:H15"/>
+  <dimension ref="B3:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -591,6 +597,22 @@
         <v>19</v>
       </c>
       <c r="H15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" t="s">
         <v>13</v>
       </c>
     </row>

--- a/trunk/kurser/sad/Event table.xlsx
+++ b/trunk/kurser/sad/Event table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="11790" windowHeight="5595"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="23">
   <si>
     <t>Events\classes</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>Staff fired</t>
+  </si>
+  <si>
+    <t>Problem deleted</t>
   </si>
 </sst>
 </file>
@@ -97,12 +100,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -146,11 +155,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:H17"/>
+  <dimension ref="B3:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -470,7 +481,7 @@
       <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -487,7 +498,7 @@
       <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -501,7 +512,7 @@
       <c r="D5" t="s">
         <v>13</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -515,7 +526,7 @@
       <c r="E6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -523,10 +534,13 @@
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
       <c r="E7" t="s">
         <v>13</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -534,85 +548,108 @@
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
       <c r="E8" t="s">
         <v>13</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="2:8">
       <c r="B9" s="1" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="2:8">
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
       </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="5"/>
     </row>
     <row r="11" spans="2:8">
       <c r="B11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="5"/>
     </row>
     <row r="12" spans="2:8">
       <c r="B12" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F12" s="5"/>
       <c r="G12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="2:8">
       <c r="B13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="2:8">
       <c r="B14" s="1" t="s">
-        <v>17</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F14" s="5"/>
       <c r="H14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="2:8">
       <c r="B15" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F15" s="5"/>
       <c r="H15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="2:8">
       <c r="B16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="H16" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G17" t="s">
+      <c r="F18" s="5"/>
+      <c r="G18" t="s">
         <v>13</v>
       </c>
     </row>

--- a/trunk/kurser/sad/Event table.xlsx
+++ b/trunk/kurser/sad/Event table.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="25">
   <si>
     <t>Events\classes</t>
   </si>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t>Problem deleted</t>
+  </si>
+  <si>
+    <t>Solution found</t>
+  </si>
+  <si>
+    <t>Problem categorized</t>
   </si>
 </sst>
 </file>
@@ -155,13 +161,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:H18"/>
+  <dimension ref="B3:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -501,6 +508,9 @@
       <c r="F4" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="2:8">
       <c r="B5" s="1" t="s">
@@ -515,6 +525,9 @@
       <c r="F5" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" s="1" t="s">
@@ -529,6 +542,9 @@
       <c r="F6" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="2:8">
       <c r="B7" s="1" t="s">
@@ -543,6 +559,9 @@
       <c r="F7" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" spans="2:8">
       <c r="B8" s="1" t="s">
@@ -557,6 +576,9 @@
       <c r="F8" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" spans="2:8">
       <c r="B9" s="1" t="s">
@@ -568,6 +590,9 @@
       <c r="F9" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="10" spans="2:8">
       <c r="B10" s="1" t="s">
@@ -639,6 +664,9 @@
       <c r="B17" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
       <c r="F17" s="5"/>
       <c r="G17" t="s">
         <v>13</v>
@@ -648,10 +676,26 @@
       <c r="B18" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
       <c r="F18" s="5"/>
       <c r="G18" t="s">
         <v>13</v>
       </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/kurser/sad/Event table.xlsx
+++ b/trunk/kurser/sad/Event table.xlsx
@@ -463,19 +463,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:H21"/>
+  <dimension ref="B3:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8">
+    <row r="3" spans="2:10">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -488,31 +489,31 @@
       <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8">
+    </row>
+    <row r="4" spans="2:10">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8">
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -522,14 +523,14 @@
       <c r="D5" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8">
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -539,14 +540,14 @@
       <c r="E6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8">
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -556,14 +557,14 @@
       <c r="E7" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8">
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
@@ -573,28 +574,28 @@
       <c r="E8" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8">
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
       <c r="B9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8">
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
@@ -604,97 +605,97 @@
       <c r="E10" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="2:8">
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="2:10">
       <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="2:8">
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="2:10">
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8">
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="2:10">
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8">
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="2:10">
       <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="H14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8">
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="2:10">
       <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="H15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8">
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="2:10">
       <c r="B16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="5"/>
-      <c r="H16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7">
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="2:10">
       <c r="B17" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E17" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="5"/>
-      <c r="G17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7">
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="2:10">
       <c r="B18" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E18" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="5"/>
-      <c r="G18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7">
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="2:10">
       <c r="B19" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:10">
       <c r="B20" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="2:7">
+    <row r="21" spans="2:10">
       <c r="B21" s="6"/>
     </row>
   </sheetData>
